--- a/biology/Zoologie/Harle_huppard/Harle_huppard.xlsx
+++ b/biology/Zoologie/Harle_huppard/Harle_huppard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mergus octosetaceus
-Le Harle huppard ou Harle du Brésil (Mergus octosetaceus) est une espèce d'oiseaux qui se trouve dans quelques rares localités au sud du centre du Brésil, et ne compte que de faibles populations[1].
+Le Harle huppard ou Harle du Brésil (Mergus octosetaceus) est une espèce d'oiseaux qui se trouve dans quelques rares localités au sud du centre du Brésil, et ne compte que de faibles populations.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ BirdLife International 2006. Mergus octosetaceus. In: IUCN 2006. 2006 IUCN Red List of Threatened Species. &lt;www.iucnredlist.org&gt;. Downloaded on 06 April 2007.
@@ -544,7 +558,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
